--- a/assets/disciplinas/LOM3221.xlsx
+++ b/assets/disciplinas/LOM3221.xlsx
@@ -79,7 +79,7 @@
     <t>Docentes responsáveis:</t>
   </si>
   <si>
-    <t>5982760 - Carlos Alberto Baldan</t>
+    <t>3268262 - Carlos Renato Menegatti</t>
   </si>
   <si>
     <t>Programa resumido:</t>

--- a/assets/disciplinas/LOM3221.xlsx
+++ b/assets/disciplinas/LOM3221.xlsx
@@ -132,11 +132,11 @@
     <t>Requisitos:</t>
   </si>
   <si>
+    <t xml:space="preserve">LOM3206 -  Eletrônica  (Indicação de Conjunto)
+</t>
+  </si>
+  <si>
     <t xml:space="preserve">LOM3202 -  Circuitos Elétricos  (Requisito)
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LOM3206 -  Eletrônica  (Indicação de Conjunto)
 </t>
   </si>
 </sst>

--- a/assets/disciplinas/LOM3221.xlsx
+++ b/assets/disciplinas/LOM3221.xlsx
@@ -132,11 +132,11 @@
     <t>Requisitos:</t>
   </si>
   <si>
+    <t xml:space="preserve">LOM3202 -  Circuitos Elétricos  (Requisito)
+</t>
+  </si>
+  <si>
     <t xml:space="preserve">LOM3206 -  Eletrônica  (Indicação de Conjunto)
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LOM3202 -  Circuitos Elétricos  (Requisito)
 </t>
   </si>
 </sst>

--- a/assets/disciplinas/LOM3221.xlsx
+++ b/assets/disciplinas/LOM3221.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="37">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -70,7 +70,7 @@
     <t>Objetivos:</t>
   </si>
   <si>
-    <t>Ensino experimental de eletrônica básica. Familiarizar o aluno com as características experimentais de circuitos e dispositivos eletrônicos reais. Familiarizar o aluno com os equipamentos e dispositivos de bancada. Utilizar programa de simulação e análise de circuitos. Familiarizar o aluno com a utilização de programas para aquisição de dados.</t>
+    <t>3268262 - Carlos Renato Menegatti</t>
   </si>
   <si>
     <t>Objectives:</t>
@@ -79,13 +79,10 @@
     <t>Docentes responsáveis:</t>
   </si>
   <si>
-    <t>3268262 - Carlos Renato Menegatti</t>
-  </si>
-  <si>
     <t>Programa resumido:</t>
   </si>
   <si>
-    <t>Circuitos retificadores. Fontes de tensão e corrente. Polarização de transistores. O transistor para chaveamento de potência. Amplificadores para pequenos sinais. Amplificadores diferenciais. Amplificadores operacionais. Circuitos integrados CMOS. Amplificadores com múltiplos estágios. Fontes chaveadas. Amplificadores de potência. Simulação de circuitos eletrônicos. Interfaceamento de instrumentos com computador. Aquisição e análise de dados.</t>
+    <t>Semestral</t>
   </si>
   <si>
     <t>Short syllabus:</t>
@@ -103,30 +100,22 @@
     <t>Método:</t>
   </si>
   <si>
+    <t>Critério:</t>
+  </si>
+  <si>
     <t>Experimentos desenvolvidos em laboratório didático, realização de relatórios para cada experimento, desenvolvimento e apresentação de projetos de circuitos e realização de testes sobre o experimento em estudo.</t>
   </si>
   <si>
-    <t>Critério:</t>
+    <t>Norma de recuperação:</t>
   </si>
   <si>
     <t>Média aritmética de prova escrita, testes, trabalhos e relatórios: PE, TS e TR. Conceito Final = (PE  + TS + TR)/3</t>
   </si>
   <si>
-    <t>Norma de recuperação:</t>
+    <t>Bibliografia:</t>
   </si>
   <si>
     <t>Aplicação de uma prova escrita e prática dentro do prazo regimental antes do início do próximo semestre letivo. A nota da segunda avaliação será a média aritmética entre a nota da prova de recuperação e a nota final da primeira avaliação</t>
-  </si>
-  <si>
-    <t>Bibliografia:</t>
-  </si>
-  <si>
-    <t>SMITH, K. C.; SEDRA, A. S. Microeletrônica, Prentice Hall do Brasil, 2007.
-HORENSTEIN, M. N. Microeletrônica: Circuitos &amp; Dispositivos. Rio de Janeiro, Prentice Hall do Brasil, 1996.
-HOROWITZ, P.; HILL, W. The Art of Electronics,. Cambridge University Press, 1980.
-BOYLESTAD, R. L.; NASHELSKY, L.; MONSSEN, F. Laboratory Manual for Electronic Devices and Circuit Theory, Prentice Hall, 2005.
-BISHOP, R. H. LabVIEW 2009 Student Edition, Prentice Hall, 2009.
-PEASE, R.A. Troubleshooting Analog Circuits, Newnes, 1991.</t>
   </si>
   <si>
     <t>Requisitos:</t>
@@ -493,7 +482,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -618,49 +607,52 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" ht="60" customHeight="1">
+      <c r="A13" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="B13" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="60" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="60" customHeight="1">
+    </row>
+    <row r="15" spans="1:3" ht="120" customHeight="1">
       <c r="A15" s="1" t="s">
         <v>24</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="120" customHeight="1">
       <c r="A16" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="120" customHeight="1">
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" ht="60" customHeight="1">
       <c r="A18" s="1" t="s">
         <v>27</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="60" customHeight="1">
@@ -685,7 +677,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="60" customHeight="1">
+    <row r="21" spans="1:3" ht="120" customHeight="1">
       <c r="A21" s="1" t="s">
         <v>32</v>
       </c>
@@ -696,36 +688,25 @@
         <v>33</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="120" customHeight="1">
+    <row r="22" spans="1:3">
       <c r="A22" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B22" s="2" t="s">
+    </row>
+    <row r="23" spans="1:3" ht="30" customHeight="1">
+      <c r="B23" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C23" s="3" t="s">
         <v>35</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="1" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="30" customHeight="1">
       <c r="B24" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="30" customHeight="1">
-      <c r="B25" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
